--- a/biology/Médecine/NPC1L1/NPC1L1.xlsx
+++ b/biology/Médecine/NPC1L1/NPC1L1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le NPC1L1 (pour « Niemann–Pick C1-like 1 ») est une protéine dont le gène est le NPC1L1 (situé sur le chromosome 7 humain), qui joue un rôle de transporteur du cholestérol.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé dans les entérocytes du jéjunum et sert au transport du cholestérol et des phytostérols de la lumière digestive vers la circulation sanguine[5].
-Il est également exprimé dans les hépatocytes où il favorise la réabsorption du cholestérol contenu dans la bile[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé dans les entérocytes du jéjunum et sert au transport du cholestérol et des phytostérols de la lumière digestive vers la circulation sanguine.
+Il est également exprimé dans les hépatocytes où il favorise la réabsorption du cholestérol contenu dans la bile. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les patients porteurs d'une mutation rendant la protéine non fonctionnelle ont un taux de LDL cholestérol plus bas et ont un risque moindre de développer une maladie cardio-vasculaire[7]. cela s'accompagne néanmoins d'une augmentation du risque de développer des lithiase biliaires[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les patients porteurs d'une mutation rendant la protéine non fonctionnelle ont un taux de LDL cholestérol plus bas et ont un risque moindre de développer une maladie cardio-vasculaire. cela s'accompagne néanmoins d'une augmentation du risque de développer des lithiase biliaires.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ézétimibe est un inhibiteur du NPC1L1[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ézétimibe est un inhibiteur du NPC1L1.
 </t>
         </is>
       </c>
